--- a/observatory.auto.update/config/template-report-web.xlsx
+++ b/observatory.auto.update/config/template-report-web.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
   <si>
-    <t xml:space="preserve">Descrição da lista de domínios de servidores WEB (testes realizados a %s)</t>
+    <t xml:space="preserve">Descrição da lista de domínios de servidores WEB (testes realizados a %DATE%)</t>
   </si>
   <si>
     <t xml:space="preserve">Lista</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">Resultados dos testes a LISTAS DE SERVIDORES WEB associados a domínios. Os valores indicados representam a percentagem de servidores de cada lista que satisfazem o critério indicado no topo (acessibilidade por IPv6, DNS do domínio protegido por DNSSEC, suporte de HTTPS, não suporte de versões TLS "deprecated" e suporte de TLS 1.3). O critério Classificação INL- Internet.nl -  é o grau (na escala de 0 a 100) de satisfação de todos os critérios testados pelo software usado. Estão sublinhados a vermelho os valores inferiores a 30 ou 30% e a azul os valores superiores a 50 ou 50%.</t>
   </si>
   <si>
-    <t xml:space="preserve">Propriedade (testes realizados a %s)</t>
+    <t xml:space="preserve">Propriedade (testes realizados a %DATE%)</t>
   </si>
   <si>
     <t xml:space="preserve">1000 sites mais populares no mundo</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">Percentagem de adesão de listas de sites às normas de segurança analisadas.  O critério Classificação Internet.nl  é o grau (na escala de 0 a 100) de satisfação de todos os critérios testados pelo software usado.</t>
   </si>
   <si>
-    <t xml:space="preserve">Descrição da lista de domínios de servidores WEB das listas com membros predominantemente do Estado (testes realizados a %s)</t>
+    <t xml:space="preserve">Descrição da lista de domínios de servidores WEB das listas com membros predominantemente do Estado (testes realizados a %DATE%)</t>
   </si>
   <si>
     <t xml:space="preserve">Média pesada</t>
@@ -1113,11 +1113,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
@@ -9318,7 +9318,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="13.88"/>
@@ -16181,7 +16181,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -19803,7 +19803,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="16.5"/>
@@ -26165,11 +26165,11 @@
   </sheetPr>
   <dimension ref="A1:BK1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BB12" activeCellId="0" sqref="BB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30"/>

--- a/observatory.auto.update/config/template-report-web.xlsx
+++ b/observatory.auto.update/config/template-report-web.xlsx
@@ -1117,7 +1117,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
@@ -9318,7 +9318,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="13.88"/>
@@ -16178,10 +16178,10 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -19800,10 +19800,10 @@
   <dimension ref="A1:Z973"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="16.5"/>
@@ -19855,23 +19855,23 @@
         <v>94</v>
       </c>
       <c r="B2" s="44" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$B$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C2" s="44" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$B$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D2" s="44" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$B$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E2" s="44" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$B$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="44" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$B$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G2" s="16"/>
@@ -19900,23 +19900,23 @@
         <v>81</v>
       </c>
       <c r="B3" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$I$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C3" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$I$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$I$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$I$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F3" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$I$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G3" s="16"/>
@@ -19945,23 +19945,23 @@
         <v>82</v>
       </c>
       <c r="B4" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$M$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C4" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$M$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$M$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E4" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$M$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F4" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$M$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="16"/>
@@ -19990,23 +19990,23 @@
         <v>83</v>
       </c>
       <c r="B5" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$R$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C5" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$R$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$R$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F5" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$R$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G5" s="16"/>
@@ -20035,23 +20035,23 @@
         <v>95</v>
       </c>
       <c r="B6" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$S$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C6" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$S$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$S$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E6" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$S$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F6" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$S$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G6" s="16"/>
@@ -20080,23 +20080,23 @@
         <v>96</v>
       </c>
       <c r="B7" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$U$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C7" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$U$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D7" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$U$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E7" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$U$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F7" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$U$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G7" s="16"/>
@@ -20125,23 +20125,23 @@
         <v>85</v>
       </c>
       <c r="B8" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$BB$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C8" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$BB$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$BB$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$BB$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F8" s="18" t="e">
-        <f aca="false">#REF!</f>
+        <f aca="true">INDIRECT("$Z1.$BB$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="16"/>
@@ -20170,23 +20170,23 @@
         <v>84</v>
       </c>
       <c r="B9" s="18" t="e">
-        <f aca="false">IF(#REF!="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("$Z1.$V$14")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="C9" s="18" t="e">
-        <f aca="false">IF(#REF!="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("$Z1.$V$13")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="18" t="e">
-        <f aca="false">IF(#REF!="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("$Z1.$V$15")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="E9" s="18" t="e">
-        <f aca="false">IF(#REF!="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("$Z1.$V$16")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="F9" s="18" t="e">
-        <f aca="false">IF(#REF!="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("$Z1.$V$17")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="G9" s="16"/>
@@ -26165,11 +26165,11 @@
   </sheetPr>
   <dimension ref="A1:BK1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BB12" activeCellId="0" sqref="BB12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30"/>

--- a/observatory.auto.update/config/template-report-web.xlsx
+++ b/observatory.auto.update/config/template-report-web.xlsx
@@ -1117,7 +1117,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8"/>
@@ -9318,7 +9318,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="13.88"/>
@@ -16181,7 +16181,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -19803,7 +19803,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="16.5"/>
@@ -19855,23 +19855,23 @@
         <v>94</v>
       </c>
       <c r="B2" s="44" t="e">
-        <f aca="true">INDIRECT("$Z1.$B$14")</f>
+        <f aca="true">INDIRECT("'Z1'!$B$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C2" s="44" t="e">
-        <f aca="true">INDIRECT("$Z1.$B$13")</f>
+        <f aca="true">INDIRECT("'Z1'!$B$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D2" s="44" t="e">
-        <f aca="true">INDIRECT("$Z1.$B$15")</f>
+        <f aca="true">INDIRECT("'Z1'!$B$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E2" s="44" t="e">
-        <f aca="true">INDIRECT("$Z1.$B$16")</f>
+        <f aca="true">INDIRECT("'Z1'!$B$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F2" s="44" t="e">
-        <f aca="true">INDIRECT("$Z1.$B$17")</f>
+        <f aca="true">INDIRECT("'Z1'!$B$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G2" s="16"/>
@@ -19900,23 +19900,23 @@
         <v>81</v>
       </c>
       <c r="B3" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$I$14")</f>
+        <f aca="true">INDIRECT("'Z1'!$I$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C3" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$I$13")</f>
+        <f aca="true">INDIRECT("'Z1'!$I$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$I$15")</f>
+        <f aca="true">INDIRECT("'Z1'!$I$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$I$16")</f>
+        <f aca="true">INDIRECT("'Z1'!$I$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F3" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$I$17")</f>
+        <f aca="true">INDIRECT("'Z1'!$I$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G3" s="16"/>
@@ -19945,23 +19945,23 @@
         <v>82</v>
       </c>
       <c r="B4" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$M$14")</f>
+        <f aca="true">INDIRECT("'Z1'!$M$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C4" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$M$13")</f>
+        <f aca="true">INDIRECT("'Z1'!$M$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$M$15")</f>
+        <f aca="true">INDIRECT("'Z1'!$M$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E4" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$M$16")</f>
+        <f aca="true">INDIRECT("'Z1'!$M$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F4" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$M$17")</f>
+        <f aca="true">INDIRECT("'Z1'!$M$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="16"/>
@@ -19990,23 +19990,23 @@
         <v>83</v>
       </c>
       <c r="B5" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$R$14")</f>
+        <f aca="true">INDIRECT("'Z1'!$R$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C5" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$R$13")</f>
+        <f aca="true">INDIRECT("'Z1'!$R$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D5" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$R$15")</f>
+        <f aca="true">INDIRECT("'Z1'!$R$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$R$16")</f>
+        <f aca="true">INDIRECT("'Z1'!$R$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F5" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$R$17")</f>
+        <f aca="true">INDIRECT("'Z1'!$R$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G5" s="16"/>
@@ -20035,23 +20035,23 @@
         <v>95</v>
       </c>
       <c r="B6" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$S$14")</f>
+        <f aca="true">INDIRECT("'Z1'!$S$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C6" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$S$13")</f>
+        <f aca="true">INDIRECT("'Z1'!$S$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D6" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$S$15")</f>
+        <f aca="true">INDIRECT("'Z1'!$S$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E6" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$S$16")</f>
+        <f aca="true">INDIRECT("'Z1'!$S$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F6" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$S$17")</f>
+        <f aca="true">INDIRECT("'Z1'!$S$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G6" s="16"/>
@@ -20080,23 +20080,23 @@
         <v>96</v>
       </c>
       <c r="B7" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$U$14")</f>
+        <f aca="true">INDIRECT("'Z1'!$U$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C7" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$U$13")</f>
+        <f aca="true">INDIRECT("'Z1'!$U$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D7" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$U$15")</f>
+        <f aca="true">INDIRECT("'Z1'!$U$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E7" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$U$16")</f>
+        <f aca="true">INDIRECT("'Z1'!$U$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F7" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$U$17")</f>
+        <f aca="true">INDIRECT("'Z1'!$U$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G7" s="16"/>
@@ -20125,23 +20125,23 @@
         <v>85</v>
       </c>
       <c r="B8" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$BB$14")</f>
+        <f aca="true">INDIRECT("'Z1'!$BB$14")</f>
         <v>#REF!</v>
       </c>
       <c r="C8" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$BB$13")</f>
+        <f aca="true">INDIRECT("'Z1'!$BB$13")</f>
         <v>#REF!</v>
       </c>
       <c r="D8" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$BB$15")</f>
+        <f aca="true">INDIRECT("'Z1'!$BB$15")</f>
         <v>#REF!</v>
       </c>
       <c r="E8" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$BB$16")</f>
+        <f aca="true">INDIRECT("'Z1'!$BB$16")</f>
         <v>#REF!</v>
       </c>
       <c r="F8" s="18" t="e">
-        <f aca="true">INDIRECT("$Z1.$BB$17")</f>
+        <f aca="true">INDIRECT("'Z1'!$BB$17")</f>
         <v>#REF!</v>
       </c>
       <c r="G8" s="16"/>
@@ -20170,23 +20170,23 @@
         <v>84</v>
       </c>
       <c r="B9" s="18" t="e">
-        <f aca="true">IF(INDIRECT("$Z1.$V$14")="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("'Z1'!$V$14")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="C9" s="18" t="e">
-        <f aca="true">IF(INDIRECT("$Z1.$V$13")="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("'Z1'!$V$13")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="D9" s="18" t="e">
-        <f aca="true">IF(INDIRECT("$Z1.$V$15")="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("'Z1'!$V$15")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="E9" s="18" t="e">
-        <f aca="true">IF(INDIRECT("$Z1.$V$16")="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("'Z1'!$V$16")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="F9" s="18" t="e">
-        <f aca="true">IF(INDIRECT("$Z1.$V$17")="passed","passed","failed")</f>
+        <f aca="true">IF(INDIRECT("'Z1'!$V$17")="passed","passed","failed")</f>
         <v>#REF!</v>
       </c>
       <c r="G9" s="16"/>
@@ -26169,7 +26169,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30"/>
